--- a/biology/Histoire de la zoologie et de la botanique/Karl_Möbius/Karl_Möbius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Möbius/Karl_Möbius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl_M%C3%B6bius</t>
+          <t>Karl_Möbius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl August Möbius (7 février 1825 - 26 avril 1908) était un zoologiste et écologue prussien (et non un écologiste). Möbius est né dans la ville allemande d'Eilenbourg et fut envoyé à l'âge de onze ans dans une école de professeurs par son père.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karl_M%C3%B6bius</t>
+          <t>Karl_Möbius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une période où il enseigna à Hambourg, il fut nommé professeur de zoologie à l'université de Kiel en 1868. Möbius resta à Kiel jusqu'à sa nomination en 1888 comme professeur de zoologie à l'université de Berlin, où il enseigna jusqu'à sa retraite, en 1905 à l'âge de 80 ans.
 Le terme de biocénose fut inventé en 1877 par Karl Möbius, alors qu'il étudiait les huîtres. Il avait remarqué que, chez ces animaux, il fallait placer le cadre d'étude non pas au niveau de l'individu, mais de l'ensemble des individus.
-Möbius fonde le premier aquarium d'eau de mer à Hambourg en 1863[2] et le muséum zoologique de Kiel en 1881.
+Möbius fonde le premier aquarium d'eau de mer à Hambourg en 1863 et le muséum zoologique de Kiel en 1881.
 Il devient membre étranger de la Zoological Society of London en 1887.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karl_M%C3%B6bius</t>
+          <t>Karl_Möbius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Espèces dédiées à Karl Möbius</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive :
 Hypothyris moebiusi, un papillon de la famille des Nymphalidae.</t>
